--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2346.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2346.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.016876350365635</v>
+        <v>0.9973810911178589</v>
       </c>
       <c r="B1">
-        <v>1.578842265282868</v>
+        <v>2.10918927192688</v>
       </c>
       <c r="C1">
-        <v>3.497649626053651</v>
+        <v>7.018016815185547</v>
       </c>
       <c r="D1">
-        <v>2.386939985599138</v>
+        <v>2.098139524459839</v>
       </c>
       <c r="E1">
-        <v>1.066768997330137</v>
+        <v>1.376373052597046</v>
       </c>
     </row>
   </sheetData>
